--- a/output/ITAÚ_11419940000136.xlsx
+++ b/output/ITAÚ_11419940000136.xlsx
@@ -1791,10 +1791,10 @@
         <v>44165</v>
       </c>
       <c r="B128">
-        <v>3.103439</v>
+        <v>3.105267400000001</v>
       </c>
       <c r="C128">
-        <v>-0.004898417011986678</v>
+        <v>-0.004455022158465938</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_11419940000136.xlsx
+++ b/output/ITAÚ_11419940000136.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ DISTRIBUIDORES HEDGE PLUS MULTIMERCADO - FUNDO DE INVESTIMENTO EM COTAS DE FDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1415 +383,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40329</v>
       </c>
       <c r="B2">
-        <v>-0.01001189999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40359</v>
       </c>
       <c r="B3">
-        <v>-0.004408500000000037</v>
-      </c>
-      <c r="C3">
         <v>0.005660068035161059</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40390</v>
       </c>
       <c r="B4">
-        <v>0.00575379999999992</v>
-      </c>
-      <c r="C4">
         <v>0.01020729887709959</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40421</v>
       </c>
       <c r="B5">
-        <v>0.01458770000000009</v>
-      </c>
-      <c r="C5">
         <v>0.008783362290055718</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40451</v>
       </c>
       <c r="B6">
-        <v>0.03130009999999994</v>
-      </c>
-      <c r="C6">
         <v>0.01647210980381475</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40482</v>
       </c>
       <c r="B7">
-        <v>0.05222389999999999</v>
-      </c>
-      <c r="C7">
         <v>0.02028875978970635</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40512</v>
       </c>
       <c r="B8">
-        <v>0.06987679999999985</v>
-      </c>
-      <c r="C8">
         <v>0.01677675255237965</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40543</v>
       </c>
       <c r="B9">
-        <v>0.08508920000000009</v>
-      </c>
-      <c r="C9">
         <v>0.0142188334208202</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40574</v>
       </c>
       <c r="B10">
-        <v>0.1001582999999999</v>
-      </c>
-      <c r="C10">
         <v>0.01388742971545542</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40602</v>
       </c>
       <c r="B11">
-        <v>0.1028681</v>
-      </c>
-      <c r="C11">
         <v>0.002463100082960912</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40633</v>
       </c>
       <c r="B12">
-        <v>0.1147448</v>
-      </c>
-      <c r="C12">
         <v>0.01076892150566322</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40663</v>
       </c>
       <c r="B13">
-        <v>0.1269977</v>
-      </c>
-      <c r="C13">
         <v>0.01099166374223048</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40694</v>
       </c>
       <c r="B14">
-        <v>0.1364231</v>
-      </c>
-      <c r="C14">
         <v>0.0083632823740456</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40724</v>
       </c>
       <c r="B15">
-        <v>0.1480422000000001</v>
-      </c>
-      <c r="C15">
         <v>0.01022427298424344</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40755</v>
       </c>
       <c r="B16">
-        <v>0.1605744</v>
-      </c>
-      <c r="C16">
         <v>0.01091614924956574</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40786</v>
       </c>
       <c r="B17">
-        <v>0.1662394</v>
-      </c>
-      <c r="C17">
         <v>0.004881203652260524</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40816</v>
       </c>
       <c r="B18">
-        <v>0.1721064000000001</v>
-      </c>
-      <c r="C18">
         <v>0.005030699528759008</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40847</v>
       </c>
       <c r="B19">
-        <v>0.2139981</v>
-      </c>
-      <c r="C19">
         <v>0.03574052662795779</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40877</v>
       </c>
       <c r="B20">
-        <v>0.2171224999999999</v>
-      </c>
-      <c r="C20">
         <v>0.002573644884617199</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40908</v>
       </c>
       <c r="B21">
-        <v>0.1878762999999999</v>
-      </c>
-      <c r="C21">
         <v>-0.024028969968101</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40939</v>
       </c>
       <c r="B22">
-        <v>0.2292654999999999</v>
-      </c>
-      <c r="C22">
         <v>0.03484302195439049</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40968</v>
       </c>
       <c r="B23">
-        <v>0.2416773999999999</v>
-      </c>
-      <c r="C23">
         <v>0.0100970050814897</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40999</v>
       </c>
       <c r="B24">
-        <v>0.2574472000000001</v>
-      </c>
-      <c r="C24">
         <v>0.01270040028110375</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41029</v>
       </c>
       <c r="B25">
-        <v>0.2661418</v>
-      </c>
-      <c r="C25">
         <v>0.006914485156911399</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41060</v>
       </c>
       <c r="B26">
-        <v>0.2831813999999999</v>
-      </c>
-      <c r="C26">
         <v>0.013457892315063</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41090</v>
       </c>
       <c r="B27">
-        <v>0.2958292</v>
-      </c>
-      <c r="C27">
         <v>0.009856595489928566</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41121</v>
       </c>
       <c r="B28">
-        <v>0.3090068000000001</v>
-      </c>
-      <c r="C28">
         <v>0.01016924144015285</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41152</v>
       </c>
       <c r="B29">
-        <v>0.3142517</v>
-      </c>
-      <c r="C29">
         <v>0.004006778268837108</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41182</v>
       </c>
       <c r="B30">
-        <v>0.3079525000000001</v>
-      </c>
-      <c r="C30">
         <v>-0.004792993609975871</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41213</v>
       </c>
       <c r="B31">
-        <v>0.3027438</v>
-      </c>
-      <c r="C31">
         <v>-0.003982331162637798</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41243</v>
       </c>
       <c r="B32">
-        <v>0.3106468</v>
-      </c>
-      <c r="C32">
         <v>0.006066426875338093</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41274</v>
       </c>
       <c r="B33">
-        <v>0.3556953</v>
-      </c>
-      <c r="C33">
         <v>0.0343711974881411</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41305</v>
       </c>
       <c r="B34">
-        <v>0.3676887</v>
-      </c>
-      <c r="C34">
         <v>0.008846678158432653</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41333</v>
       </c>
       <c r="B35">
-        <v>0.3673088</v>
-      </c>
-      <c r="C35">
         <v>-0.0002777678868005617</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41364</v>
       </c>
       <c r="B36">
-        <v>0.3988514000000001</v>
-      </c>
-      <c r="C36">
         <v>0.02306911211278684</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41394</v>
       </c>
       <c r="B37">
-        <v>0.4012795</v>
-      </c>
-      <c r="C37">
         <v>0.001735781227369726</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41425</v>
       </c>
       <c r="B38">
-        <v>0.4213355999999999</v>
-      </c>
-      <c r="C38">
         <v>0.0143127049243208</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41455</v>
       </c>
       <c r="B39">
-        <v>0.4471479999999999</v>
-      </c>
-      <c r="C39">
         <v>0.01816066522220372</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41486</v>
       </c>
       <c r="B40">
-        <v>0.4584642000000001</v>
-      </c>
-      <c r="C40">
         <v>0.007819656317114898</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41517</v>
       </c>
       <c r="B41">
-        <v>0.4695814999999999</v>
-      </c>
-      <c r="C41">
         <v>0.007622607397562264</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41547</v>
       </c>
       <c r="B42">
-        <v>0.4974438999999999</v>
-      </c>
-      <c r="C42">
         <v>0.01895941123374234</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41578</v>
       </c>
       <c r="B43">
-        <v>0.5087961999999999</v>
-      </c>
-      <c r="C43">
         <v>0.007581118731726733</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41608</v>
       </c>
       <c r="B44">
-        <v>0.5268466999999999</v>
-      </c>
-      <c r="C44">
         <v>0.01196351104277693</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41639</v>
       </c>
       <c r="B45">
-        <v>0.5577052</v>
-      </c>
-      <c r="C45">
         <v>0.02021060791499241</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41670</v>
       </c>
       <c r="B46">
-        <v>0.5785289</v>
-      </c>
-      <c r="C46">
         <v>0.01336819059216077</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41698</v>
       </c>
       <c r="B47">
-        <v>0.5985141999999999</v>
-      </c>
-      <c r="C47">
         <v>0.01266071213520381</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41729</v>
       </c>
       <c r="B48">
-        <v>0.6161638</v>
-      </c>
-      <c r="C48">
         <v>0.01104125318373783</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41759</v>
       </c>
       <c r="B49">
-        <v>0.6319500000000002</v>
-      </c>
-      <c r="C49">
         <v>0.009767698051398099</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41790</v>
       </c>
       <c r="B50">
-        <v>0.6547799999999999</v>
-      </c>
-      <c r="C50">
         <v>0.01398939918502395</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41820</v>
       </c>
       <c r="B51">
-        <v>0.6702476999999998</v>
-      </c>
-      <c r="C51">
         <v>0.009347284835446334</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41851</v>
       </c>
       <c r="B52">
-        <v>0.6922737000000001</v>
-      </c>
-      <c r="C52">
         <v>0.01318726557743521</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41882</v>
       </c>
       <c r="B53">
-        <v>0.7019736000000001</v>
-      </c>
-      <c r="C53">
         <v>0.005731874223419142</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41912</v>
       </c>
       <c r="B54">
-        <v>0.7162127999999999</v>
-      </c>
-      <c r="C54">
         <v>0.00836628723265731</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41943</v>
       </c>
       <c r="B55">
-        <v>0.7069921000000001</v>
-      </c>
-      <c r="C55">
         <v>-0.005372702033220933</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41973</v>
       </c>
       <c r="B56">
-        <v>0.7170557</v>
-      </c>
-      <c r="C56">
         <v>0.005895516446736915</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42004</v>
       </c>
       <c r="B57">
-        <v>0.7223491</v>
-      </c>
-      <c r="C57">
         <v>0.003082835344246471</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42035</v>
       </c>
       <c r="B58">
-        <v>0.7369283</v>
-      </c>
-      <c r="C58">
         <v>0.00846471833149276</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42063</v>
       </c>
       <c r="B59">
-        <v>0.7678263000000001</v>
-      </c>
-      <c r="C59">
         <v>0.01778887476241819</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42094</v>
       </c>
       <c r="B60">
-        <v>0.7936336000000002</v>
-      </c>
-      <c r="C60">
         <v>0.01459832337600142</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42124</v>
       </c>
       <c r="B61">
-        <v>0.7966158000000001</v>
-      </c>
-      <c r="C61">
         <v>0.001662658415854779</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42155</v>
       </c>
       <c r="B62">
-        <v>0.8386748999999998</v>
-      </c>
-      <c r="C62">
         <v>0.02341018040696263</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42185</v>
       </c>
       <c r="B63">
-        <v>0.8581575000000001</v>
-      </c>
-      <c r="C63">
         <v>0.01059600041312381</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42216</v>
       </c>
       <c r="B64">
-        <v>0.8975917</v>
-      </c>
-      <c r="C64">
         <v>0.02122220532974195</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42247</v>
       </c>
       <c r="B65">
-        <v>0.8665818000000001</v>
-      </c>
-      <c r="C65">
         <v>-0.01634171355197223</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42277</v>
       </c>
       <c r="B66">
-        <v>0.9174050999999999</v>
-      </c>
-      <c r="C66">
         <v>0.02722800575897599</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42308</v>
       </c>
       <c r="B67">
-        <v>0.9245923</v>
-      </c>
-      <c r="C67">
         <v>0.003748399334079222</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42338</v>
       </c>
       <c r="B68">
-        <v>0.9092054000000001</v>
-      </c>
-      <c r="C68">
         <v>-0.00799488806018811</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42369</v>
       </c>
       <c r="B69">
-        <v>0.8665584</v>
-      </c>
-      <c r="C69">
         <v>-0.02233756514621221</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42400</v>
       </c>
       <c r="B70">
-        <v>0.8841451</v>
-      </c>
-      <c r="C70">
         <v>0.009421992904159904</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42429</v>
       </c>
       <c r="B71">
-        <v>0.8501387999999999</v>
-      </c>
-      <c r="C71">
         <v>-0.01804866302494434</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42460</v>
       </c>
       <c r="B72">
-        <v>0.9211054000000001</v>
-      </c>
-      <c r="C72">
         <v>0.03835744647915074</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42490</v>
       </c>
       <c r="B73">
-        <v>0.9871407000000001</v>
-      </c>
-      <c r="C73">
         <v>0.03437359553515384</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42521</v>
       </c>
       <c r="B74">
-        <v>0.9762175</v>
-      </c>
-      <c r="C74">
         <v>-0.005496943422275136</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42551</v>
       </c>
       <c r="B75">
-        <v>1.0657838</v>
-      </c>
-      <c r="C75">
         <v>0.04532208625821821</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42582</v>
       </c>
       <c r="B76">
-        <v>1.1024046</v>
-      </c>
-      <c r="C76">
         <v>0.01772731493005208</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42613</v>
       </c>
       <c r="B77">
-        <v>1.1317736</v>
-      </c>
-      <c r="C77">
         <v>0.01396924264720512</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42643</v>
       </c>
       <c r="B78">
-        <v>1.1899507</v>
-      </c>
-      <c r="C78">
         <v>0.02729046836868609</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42674</v>
       </c>
       <c r="B79">
-        <v>1.2503012</v>
-      </c>
-      <c r="C79">
         <v>0.02755792630400311</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42704</v>
       </c>
       <c r="B80">
-        <v>1.309929</v>
-      </c>
-      <c r="C80">
         <v>0.02649769728603446</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42735</v>
       </c>
       <c r="B81">
-        <v>1.361624</v>
-      </c>
-      <c r="C81">
         <v>0.02237947573280397</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42766</v>
       </c>
       <c r="B82">
-        <v>1.4270224</v>
-      </c>
-      <c r="C82">
         <v>0.02769213050002883</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42794</v>
       </c>
       <c r="B83">
-        <v>1.4787886</v>
-      </c>
-      <c r="C83">
         <v>0.02132909856950649</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42825</v>
       </c>
       <c r="B84">
-        <v>1.511505</v>
-      </c>
-      <c r="C84">
         <v>0.01319854383709851</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42855</v>
       </c>
       <c r="B85">
-        <v>1.5236429</v>
-      </c>
-      <c r="C85">
         <v>0.004832918907189176</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42886</v>
       </c>
       <c r="B86">
-        <v>1.4414373</v>
-      </c>
-      <c r="C86">
         <v>-0.03257418076067731</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42916</v>
       </c>
       <c r="B87">
-        <v>1.4581672</v>
-      </c>
-      <c r="C87">
         <v>0.006852479889612573</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42947</v>
       </c>
       <c r="B88">
-        <v>1.4949124</v>
-      </c>
-      <c r="C88">
         <v>0.01494821019497783</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42978</v>
       </c>
       <c r="B89">
-        <v>1.5176816</v>
-      </c>
-      <c r="C89">
         <v>0.009126252288456982</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43008</v>
       </c>
       <c r="B90">
-        <v>1.6114912</v>
-      </c>
-      <c r="C90">
         <v>0.03726031123236551</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43039</v>
       </c>
       <c r="B91">
-        <v>1.616084</v>
-      </c>
-      <c r="C91">
         <v>0.001758688675649989</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43069</v>
       </c>
       <c r="B92">
-        <v>1.622509</v>
-      </c>
-      <c r="C92">
         <v>0.002455960894222065</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43100</v>
       </c>
       <c r="B93">
-        <v>1.6369065</v>
-      </c>
-      <c r="C93">
         <v>0.005489971626408074</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43131</v>
       </c>
       <c r="B94">
-        <v>1.693996</v>
-      </c>
-      <c r="C94">
         <v>0.02165017986037809</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43159</v>
       </c>
       <c r="B95">
-        <v>1.7242223</v>
-      </c>
-      <c r="C95">
         <v>0.01121987560486359</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43190</v>
       </c>
       <c r="B96">
-        <v>1.7538794</v>
-      </c>
-      <c r="C96">
         <v>0.01088644638141312</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43220</v>
       </c>
       <c r="B97">
-        <v>1.7638078</v>
-      </c>
-      <c r="C97">
         <v>0.003605241391471337</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43251</v>
       </c>
       <c r="B98">
-        <v>1.8180123</v>
-      </c>
-      <c r="C98">
         <v>0.01961225378986198</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43281</v>
       </c>
       <c r="B99">
-        <v>1.9414527</v>
-      </c>
-      <c r="C99">
         <v>0.04380406714335505</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43312</v>
       </c>
       <c r="B100">
-        <v>1.9225928</v>
-      </c>
-      <c r="C100">
         <v>-0.006411763819965666</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43343</v>
       </c>
       <c r="B101">
-        <v>1.9540608</v>
-      </c>
-      <c r="C101">
         <v>0.01076715168804898</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43373</v>
       </c>
       <c r="B102">
-        <v>1.9411584</v>
-      </c>
-      <c r="C102">
         <v>-0.004367682615063262</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43404</v>
       </c>
       <c r="B103">
-        <v>2.0338099</v>
-      </c>
-      <c r="C103">
         <v>0.03150170354646664</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43434</v>
       </c>
       <c r="B104">
-        <v>2.0144521</v>
-      </c>
-      <c r="C104">
         <v>-0.006380689838212938</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43465</v>
       </c>
       <c r="B105">
-        <v>2.0527146</v>
-      </c>
-      <c r="C105">
         <v>0.01269301973648873</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43496</v>
       </c>
       <c r="B106">
-        <v>2.1040332</v>
-      </c>
-      <c r="C106">
         <v>0.01681080832122328</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43524</v>
       </c>
       <c r="B107">
-        <v>2.0653501</v>
-      </c>
-      <c r="C107">
         <v>-0.01246220562331612</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43555</v>
       </c>
       <c r="B108">
-        <v>2.0853182</v>
-      </c>
-      <c r="C108">
         <v>0.00651413357319286</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43585</v>
       </c>
       <c r="B109">
-        <v>2.1016196</v>
-      </c>
-      <c r="C109">
         <v>0.005283539312087804</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43616</v>
       </c>
       <c r="B110">
-        <v>2.1236564</v>
-      </c>
-      <c r="C110">
         <v>0.007104933177492168</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43646</v>
       </c>
       <c r="B111">
-        <v>2.2182708</v>
-      </c>
-      <c r="C111">
         <v>0.03028963108746519</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43677</v>
       </c>
       <c r="B112">
-        <v>2.2411587</v>
-      </c>
-      <c r="C112">
         <v>0.007111862681039582</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43708</v>
       </c>
       <c r="B113">
-        <v>2.3041051</v>
-      </c>
-      <c r="C113">
         <v>0.01942095584520453</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43738</v>
       </c>
       <c r="B114">
-        <v>2.2912552</v>
-      </c>
-      <c r="C114">
         <v>-0.003889071204181804</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43769</v>
       </c>
       <c r="B115">
-        <v>2.3519097</v>
-      </c>
-      <c r="C115">
         <v>0.01842898721436148</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43799</v>
       </c>
       <c r="B116">
-        <v>2.4090365</v>
-      </c>
-      <c r="C116">
         <v>0.01704306055738902</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43830</v>
       </c>
       <c r="B117">
-        <v>2.5033707</v>
-      </c>
-      <c r="C117">
         <v>0.02767180697537275</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43861</v>
       </c>
       <c r="B118">
-        <v>2.5292665</v>
-      </c>
-      <c r="C118">
         <v>0.007391681388441151</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43890</v>
       </c>
       <c r="B119">
-        <v>2.5755075</v>
-      </c>
-      <c r="C119">
         <v>0.01310215592956765</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43921</v>
       </c>
       <c r="B120">
-        <v>2.9238462</v>
-      </c>
-      <c r="C120">
         <v>0.09742356854236789</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43951</v>
       </c>
       <c r="B121">
-        <v>2.9845665</v>
-      </c>
-      <c r="C121">
         <v>0.01547468909459293</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43982</v>
       </c>
       <c r="B122">
-        <v>2.9840855</v>
-      </c>
-      <c r="C122">
         <v>-0.0001207157666962555</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44012</v>
       </c>
       <c r="B123">
-        <v>3.0646481</v>
-      </c>
-      <c r="C123">
         <v>0.0202211021826717</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>44043</v>
       </c>
       <c r="B124">
-        <v>3.0898331</v>
-      </c>
-      <c r="C124">
         <v>0.006196108342072515</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>44074</v>
       </c>
       <c r="B125">
-        <v>3.1501559</v>
-      </c>
-      <c r="C125">
         <v>0.01474945273439143</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>44104</v>
       </c>
       <c r="B126">
-        <v>3.1016054</v>
-      </c>
-      <c r="C126">
         <v>-0.01169847619459308</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>44135</v>
       </c>
       <c r="B127">
-        <v>3.1236383</v>
-      </c>
-      <c r="C127">
         <v>0.005371774671449447</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>44165</v>
       </c>
       <c r="B128">
-        <v>3.105267400000001</v>
-      </c>
-      <c r="C128">
-        <v>-0.004455022158465938</v>
+        <v>-0.004495520375780826</v>
       </c>
     </row>
   </sheetData>
